--- a/InplusTrader/stockBacktest/result/rsi/report.xlsx
+++ b/InplusTrader/stockBacktest/result/rsi/report.xlsx
@@ -110,7 +110,7 @@
     <t>2016-01-04</t>
   </si>
   <si>
-    <t>/home/vinson/Downloads/InplusTrader-master/InplusTrader/stockBacktest/strategy/rsi.py</t>
+    <t>/home/vinson/PycharmProjects/InplusTrader_Linux/InplusTrader/stockBacktest/strategy/rsi.py</t>
   </si>
   <si>
     <t>rsi</t>
@@ -33066,7 +33066,7 @@
         <v>25.03116</v>
       </c>
       <c r="C2">
-        <v>1492151654</v>
+        <v>1492237658</v>
       </c>
       <c r="D2">
         <v>4.064</v>
@@ -33078,7 +33078,7 @@
         <v>288</v>
       </c>
       <c r="G2">
-        <v>1492151644</v>
+        <v>1492237644</v>
       </c>
       <c r="I2" t="s">
         <v>328</v>
@@ -33104,7 +33104,7 @@
         <v>17.18472</v>
       </c>
       <c r="C3">
-        <v>1492151655</v>
+        <v>1492237659</v>
       </c>
       <c r="D3">
         <v>4.053</v>
@@ -33116,7 +33116,7 @@
         <v>288</v>
       </c>
       <c r="G3">
-        <v>1492151645</v>
+        <v>1492237645</v>
       </c>
       <c r="I3" t="s">
         <v>328</v>
@@ -33142,7 +33142,7 @@
         <v>11.77932</v>
       </c>
       <c r="C4">
-        <v>1492151656</v>
+        <v>1492237660</v>
       </c>
       <c r="D4">
         <v>3.979</v>
@@ -33154,7 +33154,7 @@
         <v>288</v>
       </c>
       <c r="G4">
-        <v>1492151646</v>
+        <v>1492237646</v>
       </c>
       <c r="I4" t="s">
         <v>328</v>
@@ -33180,7 +33180,7 @@
         <v>7.98</v>
       </c>
       <c r="C5">
-        <v>1492151657</v>
+        <v>1492237661</v>
       </c>
       <c r="D5">
         <v>3.99</v>
@@ -33192,7 +33192,7 @@
         <v>288</v>
       </c>
       <c r="G5">
-        <v>1492151647</v>
+        <v>1492237647</v>
       </c>
       <c r="I5" t="s">
         <v>328</v>
@@ -33218,7 +33218,7 @@
         <v>5.2724196</v>
       </c>
       <c r="C6">
-        <v>1492151658</v>
+        <v>1492237662</v>
       </c>
       <c r="D6">
         <v>9.414999999999999</v>
@@ -33230,7 +33230,7 @@
         <v>289</v>
       </c>
       <c r="G6">
-        <v>1492151648</v>
+        <v>1492237648</v>
       </c>
       <c r="I6" t="s">
         <v>328</v>
@@ -33256,7 +33256,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1492151659</v>
+        <v>1492237663</v>
       </c>
       <c r="D7">
         <v>3.833</v>
@@ -33268,7 +33268,7 @@
         <v>288</v>
       </c>
       <c r="G7">
-        <v>1492151649</v>
+        <v>1492237649</v>
       </c>
       <c r="I7" t="s">
         <v>328</v>
@@ -33294,7 +33294,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>1492151660</v>
+        <v>1492237664</v>
       </c>
       <c r="D8">
         <v>10.269</v>
@@ -33306,7 +33306,7 @@
         <v>290</v>
       </c>
       <c r="G8">
-        <v>1492151650</v>
+        <v>1492237650</v>
       </c>
       <c r="I8" t="s">
         <v>328</v>
@@ -33332,7 +33332,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>1492151661</v>
+        <v>1492237665</v>
       </c>
       <c r="D9">
         <v>9.459</v>
@@ -33344,7 +33344,7 @@
         <v>289</v>
       </c>
       <c r="G9">
-        <v>1492151651</v>
+        <v>1492237651</v>
       </c>
       <c r="I9" t="s">
         <v>328</v>
@@ -33370,7 +33370,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>1492151662</v>
+        <v>1492237666</v>
       </c>
       <c r="D10">
         <v>3.811</v>
@@ -33382,7 +33382,7 @@
         <v>288</v>
       </c>
       <c r="G10">
-        <v>1492151652</v>
+        <v>1492237652</v>
       </c>
       <c r="I10" t="s">
         <v>328</v>
@@ -33408,7 +33408,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>1492151663</v>
+        <v>1492237667</v>
       </c>
       <c r="D11">
         <v>9.754</v>
@@ -33420,7 +33420,7 @@
         <v>290</v>
       </c>
       <c r="G11">
-        <v>1492151653</v>
+        <v>1492237653</v>
       </c>
       <c r="I11" t="s">
         <v>328</v>
@@ -33446,7 +33446,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1492151664</v>
+        <v>1492237668</v>
       </c>
       <c r="D12">
         <v>9.371</v>
@@ -33458,7 +33458,7 @@
         <v>289</v>
       </c>
       <c r="G12">
-        <v>1492151654</v>
+        <v>1492237654</v>
       </c>
       <c r="I12" t="s">
         <v>328</v>
@@ -33484,7 +33484,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>1492151665</v>
+        <v>1492237669</v>
       </c>
       <c r="D13">
         <v>3.759</v>
@@ -33496,7 +33496,7 @@
         <v>288</v>
       </c>
       <c r="G13">
-        <v>1492151655</v>
+        <v>1492237655</v>
       </c>
       <c r="I13" t="s">
         <v>328</v>
@@ -33522,7 +33522,7 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>1492151666</v>
+        <v>1492237670</v>
       </c>
       <c r="D14">
         <v>3.769</v>
@@ -33534,7 +33534,7 @@
         <v>288</v>
       </c>
       <c r="G14">
-        <v>1492151656</v>
+        <v>1492237656</v>
       </c>
       <c r="I14" t="s">
         <v>328</v>
@@ -33560,7 +33560,7 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>1492151667</v>
+        <v>1492237671</v>
       </c>
       <c r="D15">
         <v>3.654</v>
@@ -33572,7 +33572,7 @@
         <v>288</v>
       </c>
       <c r="G15">
-        <v>1492151657</v>
+        <v>1492237657</v>
       </c>
       <c r="I15" t="s">
         <v>328</v>
@@ -33598,7 +33598,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>1492151668</v>
+        <v>1492237672</v>
       </c>
       <c r="D16">
         <v>3.318</v>
@@ -33610,7 +33610,7 @@
         <v>288</v>
       </c>
       <c r="G16">
-        <v>1492151658</v>
+        <v>1492237658</v>
       </c>
       <c r="I16" t="s">
         <v>328</v>
@@ -33636,7 +33636,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>1492151669</v>
+        <v>1492237673</v>
       </c>
       <c r="D17">
         <v>9.827999999999999</v>
@@ -33648,7 +33648,7 @@
         <v>290</v>
       </c>
       <c r="G17">
-        <v>1492151659</v>
+        <v>1492237659</v>
       </c>
       <c r="I17" t="s">
         <v>328</v>
@@ -33674,7 +33674,7 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>1492151670</v>
+        <v>1492237674</v>
       </c>
       <c r="D18">
         <v>3.549</v>
@@ -33686,7 +33686,7 @@
         <v>288</v>
       </c>
       <c r="G18">
-        <v>1492151660</v>
+        <v>1492237660</v>
       </c>
       <c r="I18" t="s">
         <v>328</v>
@@ -33712,7 +33712,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>1492151671</v>
+        <v>1492237675</v>
       </c>
       <c r="D19">
         <v>3.549</v>
@@ -33724,7 +33724,7 @@
         <v>288</v>
       </c>
       <c r="G19">
-        <v>1492151661</v>
+        <v>1492237661</v>
       </c>
       <c r="I19" t="s">
         <v>328</v>
@@ -33750,7 +33750,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>1492151672</v>
+        <v>1492237676</v>
       </c>
       <c r="D20">
         <v>3.507</v>
@@ -33762,7 +33762,7 @@
         <v>288</v>
       </c>
       <c r="G20">
-        <v>1492151662</v>
+        <v>1492237662</v>
       </c>
       <c r="I20" t="s">
         <v>328</v>
@@ -33788,7 +33788,7 @@
         <v>7.311124</v>
       </c>
       <c r="C21">
-        <v>1492151673</v>
+        <v>1492237677</v>
       </c>
       <c r="D21">
         <v>9.138999999999999</v>
@@ -33800,7 +33800,7 @@
         <v>289</v>
       </c>
       <c r="G21">
-        <v>1492151663</v>
+        <v>1492237663</v>
       </c>
       <c r="I21" t="s">
         <v>329</v>
@@ -33826,7 +33826,7 @@
         <v>59.79376</v>
       </c>
       <c r="C22">
-        <v>1492151674</v>
+        <v>1492237678</v>
       </c>
       <c r="D22">
         <v>3.382</v>
@@ -33838,7 +33838,7 @@
         <v>288</v>
       </c>
       <c r="G22">
-        <v>1492151664</v>
+        <v>1492237664</v>
       </c>
       <c r="I22" t="s">
         <v>329</v>
@@ -33864,7 +33864,7 @@
         <v>20.88576</v>
       </c>
       <c r="C23">
-        <v>1492151675</v>
+        <v>1492237679</v>
       </c>
       <c r="D23">
         <v>9.324</v>
@@ -33876,7 +33876,7 @@
         <v>290</v>
       </c>
       <c r="G23">
-        <v>1492151665</v>
+        <v>1492237665</v>
       </c>
       <c r="I23" t="s">
         <v>328</v>
@@ -33902,7 +33902,7 @@
         <v>14.2842</v>
       </c>
       <c r="C24">
-        <v>1492151676</v>
+        <v>1492237680</v>
       </c>
       <c r="D24">
         <v>9.397</v>
@@ -33914,7 +33914,7 @@
         <v>290</v>
       </c>
       <c r="G24">
-        <v>1492151666</v>
+        <v>1492237666</v>
       </c>
       <c r="I24" t="s">
         <v>328</v>
@@ -33940,7 +33940,7 @@
         <v>9.751560000000001</v>
       </c>
       <c r="C25">
-        <v>1492151677</v>
+        <v>1492237681</v>
       </c>
       <c r="D25">
         <v>9.377000000000001</v>
@@ -33952,7 +33952,7 @@
         <v>290</v>
       </c>
       <c r="G25">
-        <v>1492151667</v>
+        <v>1492237667</v>
       </c>
       <c r="I25" t="s">
         <v>328</v>
@@ -33978,7 +33978,7 @@
         <v>6.713280000000002</v>
       </c>
       <c r="C26">
-        <v>1492151678</v>
+        <v>1492237682</v>
       </c>
       <c r="D26">
         <v>9.324</v>
@@ -33990,7 +33990,7 @@
         <v>290</v>
       </c>
       <c r="G26">
-        <v>1492151668</v>
+        <v>1492237668</v>
       </c>
       <c r="I26" t="s">
         <v>328</v>
@@ -34016,7 +34016,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>1492151679</v>
+        <v>1492237683</v>
       </c>
       <c r="D27">
         <v>8.808999999999999</v>
@@ -34028,7 +34028,7 @@
         <v>290</v>
       </c>
       <c r="G27">
-        <v>1492151669</v>
+        <v>1492237669</v>
       </c>
       <c r="I27" t="s">
         <v>328</v>
@@ -34054,7 +34054,7 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>1492151680</v>
+        <v>1492237684</v>
       </c>
       <c r="D28">
         <v>8.808999999999999</v>
@@ -34066,7 +34066,7 @@
         <v>290</v>
       </c>
       <c r="G28">
-        <v>1492151670</v>
+        <v>1492237670</v>
       </c>
       <c r="I28" t="s">
         <v>328</v>
@@ -34092,7 +34092,7 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>1492151681</v>
+        <v>1492237685</v>
       </c>
       <c r="D29">
         <v>8.631</v>
@@ -34104,7 +34104,7 @@
         <v>290</v>
       </c>
       <c r="G29">
-        <v>1492151671</v>
+        <v>1492237671</v>
       </c>
       <c r="I29" t="s">
         <v>328</v>
@@ -34130,7 +34130,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>1492151682</v>
+        <v>1492237686</v>
       </c>
       <c r="D30">
         <v>9.712999999999999</v>
@@ -34142,7 +34142,7 @@
         <v>289</v>
       </c>
       <c r="G30">
-        <v>1492151672</v>
+        <v>1492237672</v>
       </c>
       <c r="I30" t="s">
         <v>328</v>
@@ -34168,7 +34168,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>1492151683</v>
+        <v>1492237687</v>
       </c>
       <c r="D31">
         <v>8.662000000000001</v>
@@ -34180,7 +34180,7 @@
         <v>290</v>
       </c>
       <c r="G31">
-        <v>1492151673</v>
+        <v>1492237673</v>
       </c>
       <c r="I31" t="s">
         <v>328</v>
@@ -34206,7 +34206,7 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>1492151684</v>
+        <v>1492237688</v>
       </c>
       <c r="D32">
         <v>9.712999999999999</v>
@@ -34218,7 +34218,7 @@
         <v>289</v>
       </c>
       <c r="G32">
-        <v>1492151674</v>
+        <v>1492237674</v>
       </c>
       <c r="I32" t="s">
         <v>328</v>
@@ -34244,7 +34244,7 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <v>1492151685</v>
+        <v>1492237689</v>
       </c>
       <c r="D33">
         <v>8.757</v>
@@ -34256,7 +34256,7 @@
         <v>290</v>
       </c>
       <c r="G33">
-        <v>1492151675</v>
+        <v>1492237675</v>
       </c>
       <c r="I33" t="s">
         <v>328</v>
@@ -34282,7 +34282,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>1492151686</v>
+        <v>1492237690</v>
       </c>
       <c r="D34">
         <v>3.591</v>
@@ -34294,7 +34294,7 @@
         <v>288</v>
       </c>
       <c r="G34">
-        <v>1492151676</v>
+        <v>1492237676</v>
       </c>
       <c r="I34" t="s">
         <v>328</v>
@@ -34320,7 +34320,7 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>1492151687</v>
+        <v>1492237691</v>
       </c>
       <c r="D35">
         <v>3.612</v>
@@ -34332,7 +34332,7 @@
         <v>288</v>
       </c>
       <c r="G35">
-        <v>1492151677</v>
+        <v>1492237677</v>
       </c>
       <c r="I35" t="s">
         <v>328</v>
